--- a/data/Data-Ninghai.xlsx
+++ b/data/Data-Ninghai.xlsx
@@ -1,35 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22017\Documents\GitHub\LogicBenders\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/LogicBenders/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89652B2-6C4C-0B42-B0FB-9FE7772D051C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
     <sheet name="线路" sheetId="2" r:id="rId2"/>
-    <sheet name="换流站" sheetId="8" r:id="rId3"/>
+    <sheet name="换流站" sheetId="6" r:id="rId3"/>
     <sheet name="变电站" sheetId="3" r:id="rId4"/>
     <sheet name="新能源" sheetId="4" r:id="rId5"/>
     <sheet name="典型日" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>x坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,14 +46,6 @@
   </si>
   <si>
     <t>电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直流负荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,27 +116,7 @@
     <t>运行</t>
   </si>
   <si>
-    <t>容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光伏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,11 +155,15 @@
     <t>水电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -232,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +235,15 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,22 +527,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34:K38"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="8.77734375" style="1"/>
-    <col min="13" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="11" width="8.83203125" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -562,19 +553,16 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
@@ -601,15 +589,7 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
-      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
@@ -633,18 +613,11 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
@@ -668,18 +641,11 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
@@ -703,18 +669,11 @@
       <c r="G5" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
@@ -738,18 +697,12 @@
       <c r="G6" s="1">
         <v>0.89100000000000001</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
@@ -773,18 +726,12 @@
       <c r="G7" s="1">
         <v>5.0759999999999996</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
@@ -808,18 +755,12 @@
       <c r="G8" s="1">
         <v>1.5960000000000001</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
@@ -843,18 +784,12 @@
       <c r="G9" s="1">
         <v>2.7519999999999998</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
@@ -878,18 +813,12 @@
       <c r="G10" s="1">
         <v>2.5270000000000001</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
@@ -913,18 +842,11 @@
       <c r="G11" s="1">
         <v>1.867</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.494</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
@@ -948,18 +870,11 @@
       <c r="G12" s="1">
         <v>2.8260000000000001</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
@@ -983,18 +898,11 @@
       <c r="G13" s="1">
         <v>2.9049999999999998</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3.9220000000000002</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
@@ -1018,18 +926,12 @@
       <c r="G14" s="1">
         <v>0.38300000000000001</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="K14" s="5">
-        <v>2</v>
-      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
@@ -1053,18 +955,12 @@
       <c r="G15" s="1">
         <v>0.36099999999999999</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2</v>
-      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
@@ -1088,18 +984,12 @@
       <c r="G16" s="1">
         <v>5.2619999999999996</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4.2089999999999996</v>
-      </c>
-      <c r="J16" s="1">
-        <v>7.1040000000000001</v>
-      </c>
-      <c r="K16" s="5">
-        <v>2</v>
-      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
@@ -1123,18 +1013,12 @@
       <c r="G17" s="1">
         <v>3.0910000000000002</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4.173</v>
-      </c>
-      <c r="K17" s="5">
-        <v>2</v>
-      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
@@ -1158,18 +1042,11 @@
       <c r="G18" s="1">
         <v>4.1749999999999998</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
@@ -1193,18 +1070,12 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
@@ -1228,18 +1099,12 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
@@ -1263,18 +1128,12 @@
       <c r="G21" s="1">
         <v>2.0110000000000001</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
@@ -1298,18 +1157,12 @@
       <c r="G22" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
@@ -1333,18 +1186,12 @@
       <c r="G23" s="1">
         <v>3.7109999999999999</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
@@ -1368,18 +1215,12 @@
       <c r="G24" s="1">
         <v>0.46800000000000003</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
@@ -1403,18 +1244,12 @@
       <c r="G25" s="1">
         <v>0.501</v>
       </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
@@ -1438,18 +1273,12 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
@@ -1473,18 +1302,11 @@
       <c r="G27" s="1">
         <v>2.8410000000000002</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2</v>
-      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
@@ -1508,18 +1330,11 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
@@ -1543,18 +1358,11 @@
       <c r="G29" s="1">
         <v>4.0730000000000004</v>
       </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
@@ -1578,18 +1386,11 @@
       <c r="G30" s="1">
         <v>1.056</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="K30" s="1">
-        <v>2</v>
-      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
@@ -1613,18 +1414,11 @@
       <c r="G31" s="1">
         <v>2.8679999999999999</v>
       </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2.294</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2</v>
-      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
@@ -1648,18 +1442,11 @@
       <c r="G32" s="1">
         <v>0.54</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
@@ -1683,18 +1470,11 @@
       <c r="G33" s="1">
         <v>2.673</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2.1379999999999999</v>
-      </c>
-      <c r="K33" s="1">
-        <v>2</v>
-      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
@@ -1719,17 +1499,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
@@ -1753,18 +1526,12 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
-        <v>1</v>
-      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
@@ -1788,18 +1555,12 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="5">
-        <v>1</v>
-      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
@@ -1823,18 +1584,12 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>1</v>
-      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
@@ -1858,18 +1613,12 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>1</v>
-      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
@@ -1893,23 +1642,351 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7">
+        <v>35</v>
+      </c>
+      <c r="C40" s="2">
+        <v>129.6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>159.9</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>35</v>
+      </c>
+      <c r="C41" s="2">
+        <v>256.60000000000002</v>
+      </c>
+      <c r="D41" s="2">
+        <v>141.1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>177.5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1.494</v>
+      </c>
+      <c r="G42" s="7">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="D43" s="2">
+        <v>167.8</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="G43" s="7">
+        <v>3.9220000000000002</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2">
+        <v>115.1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>140.5</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2">
+        <v>134.1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>147.5</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7">
+        <v>35</v>
+      </c>
+      <c r="C46" s="2">
+        <v>151.1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>145</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="G46" s="7">
+        <v>7.1040000000000001</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>35</v>
+      </c>
+      <c r="C47" s="2">
+        <v>238.6</v>
+      </c>
+      <c r="D47" s="2">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="G47" s="7">
+        <v>4.173</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7">
+        <v>35</v>
+      </c>
+      <c r="C48" s="2">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="D48" s="2">
+        <v>118</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>35</v>
+      </c>
+      <c r="C49" s="2">
+        <v>163.1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7">
+        <v>35</v>
+      </c>
+      <c r="C50" s="2">
+        <v>264.60000000000002</v>
+      </c>
+      <c r="D50" s="2">
+        <v>90</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2.294</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>35</v>
+      </c>
+      <c r="C51" s="2">
+        <v>312.89999999999998</v>
+      </c>
+      <c r="D51" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,56 +1995,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:K63"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="8.77734375" style="4"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="4"/>
+    <col min="1" max="8" width="8.83203125" style="4"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="4"/>
+    <col min="12" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1996,13 +2071,10 @@
         <v>69926.748169816943</v>
       </c>
       <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2030,14 +2102,11 @@
       <c r="I3" s="2">
         <v>32240.579925344049</v>
       </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2065,14 +2134,11 @@
       <c r="I4" s="2">
         <v>44457.659494456246</v>
       </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2100,14 +2166,11 @@
       <c r="I5" s="2">
         <v>36172.619331097754</v>
       </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2135,14 +2198,11 @@
       <c r="I6" s="2">
         <v>19701.184150261124</v>
       </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2170,14 +2230,11 @@
       <c r="I7" s="2">
         <v>39067.516429701449</v>
       </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2205,14 +2262,11 @@
       <c r="I8" s="2">
         <v>55592.114581498878</v>
       </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2240,14 +2294,11 @@
       <c r="I9" s="2">
         <v>29895.751774332446</v>
       </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2275,14 +2326,11 @@
       <c r="I10" s="2">
         <v>72505.387361836692</v>
       </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2310,14 +2358,11 @@
       <c r="I11" s="2">
         <v>68374.413474943271</v>
       </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2345,14 +2390,11 @@
       <c r="I12" s="2">
         <v>54525.637586185134</v>
       </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2380,14 +2422,11 @@
       <c r="I13" s="2">
         <v>28384.752352671694</v>
       </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2415,14 +2454,11 @@
       <c r="I14" s="2">
         <v>31045.407167969326</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2450,14 +2486,11 @@
       <c r="I15" s="2">
         <v>44924.569371586622</v>
       </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2485,14 +2518,11 @@
       <c r="I16" s="2">
         <v>26416.380200786356</v>
       </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2520,14 +2550,11 @@
       <c r="I17" s="2">
         <v>24307.372062863949</v>
       </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2555,14 +2582,11 @@
       <c r="I18" s="2">
         <v>28230.310669606544</v>
       </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2590,14 +2614,11 @@
       <c r="I19" s="2">
         <v>64531.990283153493</v>
       </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2625,14 +2646,11 @@
       <c r="I20" s="2">
         <v>24963.270966995264</v>
       </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2660,14 +2678,11 @@
       <c r="I21" s="2">
         <v>23690.282086881693</v>
       </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2695,14 +2710,11 @@
       <c r="I22" s="2">
         <v>26361.670608324908</v>
       </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2730,14 +2742,11 @@
       <c r="I23" s="2">
         <v>29207.229965461847</v>
       </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2765,14 +2774,11 @@
       <c r="I24" s="2">
         <v>35659.064623984159</v>
       </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2800,14 +2806,11 @@
       <c r="I25" s="2">
         <v>36524.076266828451</v>
       </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2835,14 +2838,11 @@
       <c r="I26" s="2">
         <v>8288.4744059057102</v>
       </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2870,14 +2870,11 @@
       <c r="I27" s="2">
         <v>18697.437048945485</v>
       </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2905,14 +2902,11 @@
       <c r="I28" s="2">
         <v>8250.8786384353571</v>
       </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2940,14 +2934,11 @@
       <c r="I29" s="2">
         <v>46813.080982527812</v>
       </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2975,14 +2966,11 @@
       <c r="I30" s="2">
         <v>35480.620150486066</v>
       </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -3010,14 +2998,11 @@
       <c r="I31" s="2">
         <v>26898.538172785324</v>
       </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -3045,14 +3030,11 @@
       <c r="I32" s="2">
         <v>31491.982654804247</v>
       </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -3080,14 +3062,11 @@
       <c r="I33" s="2">
         <v>11531.884567285855</v>
       </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -3115,14 +3094,11 @@
       <c r="I34" s="2">
         <v>6821.5602889640486</v>
       </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -3150,14 +3126,11 @@
       <c r="I35" s="2">
         <v>30860.1320236801</v>
       </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -3185,14 +3158,11 @@
       <c r="I36" s="2">
         <v>35549.441442991767</v>
       </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -3220,14 +3190,11 @@
       <c r="I37" s="2">
         <v>33419.447256111533</v>
       </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -3255,14 +3222,11 @@
       <c r="I38" s="2">
         <v>12189.626789534515</v>
       </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -3290,14 +3254,11 @@
       <c r="I39" s="2">
         <v>19985.939499717661</v>
       </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -3325,14 +3286,11 @@
       <c r="I40" s="2">
         <v>10877.610422509379</v>
       </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -3360,28 +3318,25 @@
       <c r="I41" s="2">
         <v>22236.596845698878</v>
       </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C42" s="4">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D42" s="6">
-        <v>1.0793632382103799</v>
+        <v>1.6614225832099401</v>
       </c>
       <c r="E42" s="6">
-        <v>0.29617083261024413</v>
+        <v>0.45588444405667405</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -3393,30 +3348,27 @@
         <v>15</v>
       </c>
       <c r="I42" s="2">
-        <v>31301.533908101017</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>48181.254913088262</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D43" s="6">
-        <v>1.21100165152654</v>
+        <v>1.9436306233438501</v>
       </c>
       <c r="E43" s="6">
-        <v>0.33229162781166405</v>
+        <v>0.53332064649242372</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -3428,30 +3380,27 @@
         <v>15</v>
       </c>
       <c r="I43" s="2">
-        <v>35119.047894269665</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>56365.28807697165</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C44" s="4">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D44" s="6">
-        <v>0.65956425009243802</v>
+        <v>1.8637931752209</v>
       </c>
       <c r="E44" s="6">
-        <v>0.18098049497564414</v>
+        <v>0.51141372707273303</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -3463,30 +3412,27 @@
         <v>15</v>
       </c>
       <c r="I44" s="2">
-        <v>19127.363252680701</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>54050.002081406099</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C45" s="4">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D45" s="6">
-        <v>0.950276275616729</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="E45" s="6">
-        <v>0.26075014026400611</v>
+        <v>0.61875854568054689</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -3498,30 +3444,27 @@
         <v>15</v>
       </c>
       <c r="I45" s="2">
-        <v>27558.011992885142</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>65395</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C46" s="4">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D46" s="6">
-        <v>3.1573921200889798</v>
+        <v>2.1709041895026102</v>
       </c>
       <c r="E46" s="6">
-        <v>0.86636955936562132</v>
+        <v>0.59568315703256836</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -3533,30 +3476,27 @@
         <v>15</v>
       </c>
       <c r="I46" s="2">
-        <v>91564.37148258042</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>62956.221495575694</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C47" s="4">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D47" s="6">
-        <v>0.944100100624929</v>
+        <v>2.6782456944798798</v>
       </c>
       <c r="E47" s="6">
-        <v>0.25905543469602621</v>
+        <v>0.73489463897630014</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -3568,30 +3508,27 @@
         <v>15</v>
       </c>
       <c r="I47" s="2">
-        <v>27378.902918122942</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>77669.125139916519</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C48" s="4">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D48" s="6">
-        <v>1.19549153071028</v>
+        <v>1.5048754101253701</v>
       </c>
       <c r="E48" s="6">
-        <v>0.32803574319986867</v>
+        <v>0.41292883379139272</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -3603,30 +3540,27 @@
         <v>15</v>
       </c>
       <c r="I48" s="2">
-        <v>34669.254390598122</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>43641.386893635732</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D49" s="6">
-        <v>4.14501206270862</v>
+        <v>2.19572311551343</v>
       </c>
       <c r="E49" s="6">
-        <v>1.1373665790465233</v>
+        <v>0.60249332224933461</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -3638,30 +3572,27 @@
         <v>15</v>
       </c>
       <c r="I49" s="2">
-        <v>99350</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>63675.970349889474</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C50" s="4">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D50" s="6">
-        <v>1.0124228365658301</v>
+        <v>1.9932385707686899</v>
       </c>
       <c r="E50" s="6">
-        <v>0.27780278579478807</v>
+        <v>0.54693277128301843</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -3673,30 +3604,27 @@
         <v>15</v>
       </c>
       <c r="I50" s="2">
-        <v>29360.262260409072</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>57803.918552292009</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C51" s="4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D51" s="6">
-        <v>1.39804327543893</v>
+        <v>1.0793632382103799</v>
       </c>
       <c r="E51" s="6">
-        <v>0.38361473344082514</v>
+        <v>0.29617083261024413</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -3708,30 +3636,27 @@
         <v>15</v>
       </c>
       <c r="I51" s="2">
-        <v>40543.254987728971</v>
+        <v>31301.533908101017</v>
       </c>
       <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="4">
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C52" s="4">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D52" s="6">
-        <v>0.85914201387197897</v>
+        <v>1.21100165152654</v>
       </c>
       <c r="E52" s="6">
-        <v>0.23574344258824037</v>
+        <v>0.33229162781166405</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -3743,30 +3668,27 @@
         <v>15</v>
       </c>
       <c r="I52" s="2">
-        <v>24915.118402287389</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>35119.047894269665</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C53" s="4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D53" s="6">
-        <v>1.479873305388</v>
+        <v>0.65956425009243802</v>
       </c>
       <c r="E53" s="6">
-        <v>0.40606840542498573</v>
+        <v>0.18098049497564414</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -3778,30 +3700,27 @@
         <v>15</v>
       </c>
       <c r="I53" s="2">
-        <v>42916.325856251999</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>19127.363252680701</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C54" s="4">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D54" s="6">
-        <v>1.6623477373883</v>
+        <v>0.950276275616729</v>
       </c>
       <c r="E54" s="6">
-        <v>0.45613830084334028</v>
+        <v>0.26075014026400611</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -3813,30 +3732,27 @@
         <v>15</v>
       </c>
       <c r="I54" s="2">
-        <v>48208.084384260699</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>27558.011992885142</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C55" s="4">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D55" s="6">
-        <v>1.8637931752209</v>
+        <v>3.1573921200889798</v>
       </c>
       <c r="E55" s="6">
-        <v>0.51141372707273303</v>
+        <v>0.86636955936562132</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -3848,30 +3764,27 @@
         <v>15</v>
       </c>
       <c r="I55" s="2">
-        <v>54050.002081406099</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>91564.37148258042</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="4">
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C56" s="4">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D56" s="6">
-        <v>2.2549999999999999</v>
+        <v>0.944100100624929</v>
       </c>
       <c r="E56" s="6">
-        <v>0.61875854568054689</v>
+        <v>0.25905543469602621</v>
       </c>
       <c r="F56" s="4">
         <v>0</v>
@@ -3883,30 +3796,27 @@
         <v>15</v>
       </c>
       <c r="I56" s="2">
-        <v>65395</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
-      </c>
-      <c r="K56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>27378.902918122942</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C57" s="4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D57" s="6">
-        <v>1.9436306233438501</v>
+        <v>1.19549153071028</v>
       </c>
       <c r="E57" s="6">
-        <v>0.53332064649242372</v>
+        <v>0.32803574319986867</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -3918,30 +3828,27 @@
         <v>15</v>
       </c>
       <c r="I57" s="2">
-        <v>56365.28807697165</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>34669.254390598122</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C58" s="4">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D58" s="6">
-        <v>2.1709041895026102</v>
+        <v>4.14501206270862</v>
       </c>
       <c r="E58" s="6">
-        <v>0.59568315703256836</v>
+        <v>1.1373665790465233</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -3953,30 +3860,27 @@
         <v>15</v>
       </c>
       <c r="I58" s="2">
-        <v>62956.221495575694</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>99350</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="4">
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C59" s="4">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D59" s="6">
-        <v>2.6782456944798798</v>
+        <v>1.0124228365658301</v>
       </c>
       <c r="E59" s="6">
-        <v>0.73489463897630014</v>
+        <v>0.27780278579478807</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -3988,30 +3892,27 @@
         <v>15</v>
       </c>
       <c r="I59" s="2">
-        <v>77669.125139916519</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>29360.262260409072</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="4">
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C60" s="4">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D60" s="6">
-        <v>2.19572311551343</v>
+        <v>1.39804327543893</v>
       </c>
       <c r="E60" s="6">
-        <v>0.60249332224933461</v>
+        <v>0.38361473344082514</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -4023,30 +3924,27 @@
         <v>15</v>
       </c>
       <c r="I60" s="2">
-        <v>63675.970349889474</v>
-      </c>
-      <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>40543.254987728971</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="4">
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C61" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D61" s="6">
-        <v>1.9932385707686899</v>
+        <v>0.85914201387197897</v>
       </c>
       <c r="E61" s="6">
-        <v>0.54693277128301843</v>
+        <v>0.23574344258824037</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -4058,30 +3956,27 @@
         <v>15</v>
       </c>
       <c r="I61" s="2">
-        <v>57803.918552292009</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>24915.118402287389</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="4">
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C62" s="4">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D62" s="6">
-        <v>1.6614225832099401</v>
+        <v>1.479873305388</v>
       </c>
       <c r="E62" s="6">
-        <v>0.45588444405667405</v>
+        <v>0.40606840542498573</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -4093,30 +3988,27 @@
         <v>15</v>
       </c>
       <c r="I62" s="2">
-        <v>48181.254913088262</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0</v>
-      </c>
-      <c r="K62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>42916.325856251999</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C63" s="4">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D63" s="6">
-        <v>1.5048754101253701</v>
+        <v>1.6623477373883</v>
       </c>
       <c r="E63" s="6">
-        <v>0.41292883379139272</v>
+        <v>0.45613830084334028</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -4128,14 +4020,127 @@
         <v>15</v>
       </c>
       <c r="I63" s="2">
-        <v>43641.386893635732</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="K63" s="5">
-        <v>1</v>
-      </c>
+        <v>48208.084384260699</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4145,199 +4150,259 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECEC427-18F6-4745-87FF-7544B305027C}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B7" s="8">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8">
+        <v>47</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B12" s="8">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>31</v>
       </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1700000</v>
-      </c>
+      <c r="C13" s="8">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3400000</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4346,30 +4411,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -4434,39 +4499,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4486,10 +4551,10 @@
         <v>33000</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4509,10 +4574,10 @@
         <v>33000</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4532,10 +4597,10 @@
         <v>50000</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4555,10 +4620,10 @@
         <v>50000</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4578,10 +4643,10 @@
         <v>16000</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4600,11 +4665,11 @@
       <c r="E7" s="1">
         <v>16000</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4623,11 +4688,11 @@
       <c r="E8" s="1">
         <v>16000</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4646,11 +4711,11 @@
       <c r="E9" s="1">
         <v>16000</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4669,11 +4734,11 @@
       <c r="E10" s="1">
         <v>16000</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4695,8 +4760,8 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
+      <c r="G11" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4706,35 +4771,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>34</v>
+      <c r="A2" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>0.49695688116883102</v>
@@ -4750,7 +4815,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1">
         <v>0.46728781363636401</v>
       </c>
@@ -4765,7 +4830,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1">
         <v>0.44503601298701301</v>
       </c>
@@ -4780,7 +4845,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1">
         <v>0.43761874610389601</v>
       </c>
@@ -4795,7 +4860,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1">
         <v>0.43761874610389601</v>
       </c>
@@ -4810,7 +4875,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1">
         <v>0.44503601298701301</v>
       </c>
@@ -4825,7 +4890,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1">
         <v>0.54887774935064904</v>
       </c>
@@ -4840,7 +4905,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1">
         <v>0.63788495194805195</v>
       </c>
@@ -4855,7 +4920,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -4870,7 +4935,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -4885,7 +4950,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -4900,7 +4965,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -4915,7 +4980,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -4930,7 +4995,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -4945,7 +5010,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1">
         <v>0.68980582012987002</v>
       </c>
@@ -4960,7 +5025,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1">
         <v>0.69722308701298696</v>
       </c>
@@ -4975,7 +5040,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1">
         <v>0.73430942142857203</v>
       </c>
@@ -4990,7 +5055,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1">
         <v>0.74172668831168798</v>
       </c>
@@ -5005,7 +5070,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1">
         <v>0.74172668831168798</v>
       </c>
@@ -5020,7 +5085,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -5035,7 +5100,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1">
         <v>0.67497128636363701</v>
       </c>
@@ -5050,7 +5115,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1">
         <v>0.68980582012987002</v>
       </c>
@@ -5065,7 +5130,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="1">
         <v>0.54146048246753298</v>
       </c>
@@ -5080,7 +5145,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="1">
         <v>0.46728781363636401</v>
       </c>
@@ -5095,8 +5160,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
-        <v>30</v>
+      <c r="A26" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>0.50285541162790703</v>
@@ -5112,7 +5177,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="1">
         <v>0.47283419302325602</v>
       </c>
@@ -5127,7 +5192,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="1">
         <v>0.45031827906976701</v>
       </c>
@@ -5142,7 +5207,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="1">
         <v>0.44281297441860501</v>
       </c>
@@ -5157,7 +5222,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="1">
         <v>0.44281297441860501</v>
       </c>
@@ -5172,7 +5237,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="1">
         <v>0.45031827906976701</v>
       </c>
@@ -5187,7 +5252,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="1">
         <v>0.555392544186046</v>
       </c>
@@ -5202,7 +5267,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="1">
         <v>0.64545620000000004</v>
       </c>
@@ -5217,7 +5282,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5232,7 +5297,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5247,7 +5312,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5262,7 +5327,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5277,7 +5342,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5292,7 +5357,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5307,7 +5372,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="1">
         <v>0.69799333255814</v>
       </c>
@@ -5322,7 +5387,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="1">
         <v>0.70549863720930195</v>
       </c>
@@ -5337,7 +5402,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="7"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="1">
         <v>0.74302516046511602</v>
       </c>
@@ -5352,7 +5417,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="7"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="1">
         <v>0.75053046511627897</v>
       </c>
@@ -5367,7 +5432,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="7"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="1">
         <v>0.75053046511627897</v>
       </c>
@@ -5382,7 +5447,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="7"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5397,7 +5462,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="7"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="1">
         <v>0.68298272325581399</v>
       </c>
@@ -5412,7 +5477,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="7"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="1">
         <v>0.69799333255814</v>
       </c>
@@ -5427,7 +5492,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="7"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="1">
         <v>0.54788723953488405</v>
       </c>
@@ -5442,7 +5507,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="7"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="1">
         <v>0.47283419302325602</v>
       </c>
@@ -5457,8 +5522,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="7" t="s">
-        <v>31</v>
+      <c r="A50" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B50" s="1">
         <v>0.49771907142857102</v>
@@ -5474,7 +5539,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="7"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="1">
         <v>0.46800449999999999</v>
       </c>
@@ -5489,7 +5554,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="7"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="1">
         <v>0.44571857142857102</v>
       </c>
@@ -5504,7 +5569,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="7"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="1">
         <v>0.43828992857142801</v>
       </c>
@@ -5519,7 +5584,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="7"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="1">
         <v>0.43828992857142801</v>
       </c>
@@ -5534,7 +5599,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="7"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="1">
         <v>0.44571857142857102</v>
       </c>
@@ -5549,7 +5614,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="7"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="1">
         <v>0.54971957142857097</v>
       </c>
@@ -5564,7 +5629,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="7"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="1">
         <v>0.63886328571428597</v>
       </c>
@@ -5579,7 +5644,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="7"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5594,7 +5659,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="7"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5609,7 +5674,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="7"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5624,7 +5689,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="7"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5639,7 +5704,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="7"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5654,7 +5719,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="7"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5669,7 +5734,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="7"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="1">
         <v>0.69086378571428597</v>
       </c>
@@ -5684,7 +5749,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="7"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="1">
         <v>0.69829242857142904</v>
       </c>
@@ -5699,7 +5764,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="7"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="1">
         <v>0.73543564285714302</v>
       </c>
@@ -5714,7 +5779,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="7"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="1">
         <v>0.74286428571428598</v>
       </c>
@@ -5729,7 +5794,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="7"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="1">
         <v>0.74286428571428598</v>
       </c>
@@ -5744,7 +5809,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5759,7 +5824,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="7"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="1">
         <v>0.67600649999999995</v>
       </c>
@@ -5774,7 +5839,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="7"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="1">
         <v>0.69086378571428597</v>
       </c>
@@ -5789,7 +5854,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="7"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="1">
         <v>0.54229092857142902</v>
       </c>
@@ -5804,7 +5869,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="7"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="1">
         <v>0.46800449999999999</v>
       </c>
@@ -5819,8 +5884,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="7" t="s">
-        <v>32</v>
+      <c r="A74" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B74" s="1">
         <v>0.490099549152542</v>
@@ -5836,7 +5901,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="7"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="1">
         <v>0.46083987457627101</v>
       </c>
@@ -5851,7 +5916,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="7"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="1">
         <v>0.43889511864406799</v>
       </c>
@@ -5866,7 +5931,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="7"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="1">
         <v>0.43158020000000002</v>
       </c>
@@ -5881,7 +5946,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="7"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="1">
         <v>0.43158020000000002</v>
       </c>
@@ -5896,7 +5961,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="7"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="1">
         <v>0.43889511864406799</v>
       </c>
@@ -5911,7 +5976,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="7"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="1">
         <v>0.54130397966101695</v>
       </c>
@@ -5926,7 +5991,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="7"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="1">
         <v>0.62908300338983103</v>
       </c>
@@ -5941,7 +6006,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="7"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -5956,7 +6021,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="7"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -5971,7 +6036,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="7"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -5986,7 +6051,7 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="7"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6001,7 +6066,7 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="7"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6016,7 +6081,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="7"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6031,7 +6096,7 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="7"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="1">
         <v>0.68028743389830504</v>
       </c>
@@ -6046,7 +6111,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="7"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="1">
         <v>0.68760235254237301</v>
       </c>
@@ -6061,7 +6126,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="7"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="1">
         <v>0.72417694576271197</v>
       </c>
@@ -6076,7 +6141,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="7"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="1">
         <v>0.73149186440678005</v>
       </c>
@@ -6091,7 +6156,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="7"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="1">
         <v>0.73149186440678005</v>
       </c>
@@ -6106,7 +6171,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="7"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -6121,7 +6186,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="7"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="1">
         <v>0.66565759661016899</v>
       </c>
@@ -6136,7 +6201,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="7"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="1">
         <v>0.68028743389830504</v>
       </c>
@@ -6151,7 +6216,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="7"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="1">
         <v>0.53398906101694898</v>
       </c>
@@ -6166,7 +6231,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="7"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="1">
         <v>0.46083987457627101</v>
       </c>

--- a/data/Data-Ninghai.xlsx
+++ b/data/Data-Ninghai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/LogicBenders/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89652B2-6C4C-0B42-B0FB-9FE7772D051C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB56DF-3CDB-BD43-96B7-2791AF168062}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +155,19 @@
     <t>容量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>投运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -214,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +245,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K52"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -553,11 +569,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -660,13 +676,13 @@
       <c r="D5" s="2">
         <v>268.2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="14">
         <v>0.49199999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="14">
         <v>0.67400000000000004</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="14">
         <v>0.92500000000000004</v>
       </c>
       <c r="H5" s="7">
@@ -688,13 +704,13 @@
       <c r="D6" s="2">
         <v>250</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="14">
         <v>0.47399999999999998</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="14">
         <v>0.64900000000000002</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="14">
         <v>0.89100000000000001</v>
       </c>
       <c r="H6" s="7">
@@ -717,13 +733,13 @@
       <c r="D7" s="2">
         <v>255</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="14">
         <v>2.7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="14">
         <v>3.6990000000000007</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="14">
         <v>5.0759999999999996</v>
       </c>
       <c r="H7" s="7">
@@ -746,13 +762,13 @@
       <c r="D8" s="2">
         <v>226.2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="14">
         <v>0.84899999999999998</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="14">
         <v>1.163</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="14">
         <v>1.5960000000000001</v>
       </c>
       <c r="H8" s="7">
@@ -775,13 +791,13 @@
       <c r="D9" s="2">
         <v>208.2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="14">
         <v>1.464</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="14">
         <v>2.0059999999999998</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="14">
         <v>2.7519999999999998</v>
       </c>
       <c r="H9" s="7">
@@ -804,13 +820,13 @@
       <c r="D10" s="2">
         <v>197.2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="14">
         <v>1.3440000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="14">
         <v>1.841</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="14">
         <v>2.5270000000000001</v>
       </c>
       <c r="H10" s="7">
@@ -833,13 +849,13 @@
       <c r="D11" s="2">
         <v>177.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="14">
         <v>0.99299999999999999</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="14">
         <v>1.361</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="14">
         <v>1.867</v>
       </c>
       <c r="H11" s="7">
@@ -861,13 +877,13 @@
       <c r="D12" s="2">
         <v>181.8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="14">
         <v>1.5029999999999999</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="14">
         <v>2.0590000000000002</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="14">
         <v>2.8260000000000001</v>
       </c>
       <c r="H12" s="7">
@@ -889,13 +905,13 @@
       <c r="D13" s="2">
         <v>167.8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="14">
         <v>1.5449999999999999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="14">
         <v>2.117</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="14">
         <v>2.9049999999999998</v>
       </c>
       <c r="H13" s="7">
@@ -917,13 +933,13 @@
       <c r="D14" s="2">
         <v>140.5</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="14">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="14">
         <v>0.27900000000000003</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="14">
         <v>0.38300000000000001</v>
       </c>
       <c r="H14" s="7">
@@ -946,13 +962,13 @@
       <c r="D15" s="2">
         <v>147.5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="14">
         <v>0.192</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="14">
         <v>0.26300000000000001</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="14">
         <v>0.36099999999999999</v>
       </c>
       <c r="H15" s="7">
@@ -975,13 +991,13 @@
       <c r="D16" s="2">
         <v>145</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="14">
         <v>2.7989999999999999</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="14">
         <v>3.835</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="14">
         <v>5.2619999999999996</v>
       </c>
       <c r="H16" s="7">
@@ -1004,13 +1020,13 @@
       <c r="D17" s="2">
         <v>147.19999999999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="14">
         <v>1.6439999999999999</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="14">
         <v>2.2519999999999998</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="14">
         <v>3.0910000000000002</v>
       </c>
       <c r="H17" s="7">
@@ -1033,13 +1049,13 @@
       <c r="D18" s="2">
         <v>161.19999999999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="14">
         <v>2.2210000000000001</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="14">
         <v>3.0430000000000001</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>4.1749999999999998</v>
       </c>
       <c r="H18" s="7">
@@ -1061,14 +1077,14 @@
       <c r="D19" s="2">
         <v>202.5</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
+      <c r="E19" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1E-3</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1094,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1268,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1E-3</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -1324,11 +1340,11 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
+      <c r="F28" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1E-3</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -1440,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0.54</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -1484,10 +1500,10 @@
         <v>35</v>
       </c>
       <c r="C34" s="2">
-        <v>196.9</v>
+        <v>350</v>
       </c>
       <c r="D34" s="2">
-        <v>57.6</v>
+        <v>99.3</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -1496,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
+        <v>1E-3</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1512,10 +1528,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>176.8</v>
+        <v>196.9</v>
       </c>
       <c r="D35" s="2">
-        <v>118</v>
+        <v>57.6</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1526,12 +1542,10 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="1">
         <v>1</v>
       </c>
       <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
@@ -1541,10 +1555,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2">
-        <v>229.2</v>
+        <v>176.8</v>
       </c>
       <c r="D36" s="2">
-        <v>49.8</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1570,10 +1584,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="2">
-        <v>297.39999999999998</v>
+        <v>229.2</v>
       </c>
       <c r="D37" s="2">
-        <v>60.8</v>
+        <v>49.8</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -1599,10 +1613,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="2">
-        <v>324.3</v>
+        <v>209.3</v>
       </c>
       <c r="D38" s="2">
-        <v>74.3</v>
+        <v>97.6</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -1628,10 +1642,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="2">
-        <v>350</v>
+        <v>209.3</v>
       </c>
       <c r="D39" s="2">
-        <v>99.3</v>
+        <v>125.7</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -1957,30 +1971,14 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="7">
-        <v>49</v>
-      </c>
-      <c r="B51" s="7">
-        <v>35</v>
-      </c>
-      <c r="C51" s="2">
-        <v>312.89999999999998</v>
-      </c>
-      <c r="D51" s="2">
-        <v>112.5</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>2.1379999999999999</v>
-      </c>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
@@ -1998,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3298,7 +3296,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D41" s="6">
         <v>1.96891467565255</v>
@@ -3327,10 +3325,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" s="6">
         <v>1.6614225832099401</v>
@@ -3359,7 +3357,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43" s="4">
         <v>47</v>
@@ -3391,7 +3389,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="4">
         <v>44</v>
@@ -3423,7 +3421,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" s="4">
         <v>46</v>
@@ -3455,16 +3453,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4">
-        <v>47</v>
-      </c>
-      <c r="D46" s="6">
-        <v>2.1709041895026102</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0.59568315703256836</v>
+        <v>36</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.6</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -3478,7 +3476,7 @@
       <c r="I46" s="2">
         <v>62956.221495575694</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3490,27 +3488,27 @@
         <v>34</v>
       </c>
       <c r="C47" s="4">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D47" s="6">
-        <v>2.6782456944798798</v>
+        <v>1.85</v>
       </c>
       <c r="E47" s="6">
-        <v>0.73489463897630014</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
         <v>15</v>
       </c>
       <c r="I47" s="2">
-        <v>77669.125139916519</v>
-      </c>
-      <c r="J47" s="5">
+        <v>53750.128900000003</v>
+      </c>
+      <c r="J47" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3519,16 +3517,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="4">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D48" s="6">
-        <v>1.5048754101253701</v>
+        <v>2.1709041895026102</v>
       </c>
       <c r="E48" s="6">
-        <v>0.41292883379139272</v>
+        <v>0.59568315703256836</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -3540,7 +3538,7 @@
         <v>15</v>
       </c>
       <c r="I48" s="2">
-        <v>43641.386893635732</v>
+        <v>62956.221495575694</v>
       </c>
       <c r="J48" s="5">
         <v>1</v>
@@ -3557,10 +3555,10 @@
         <v>48</v>
       </c>
       <c r="D49" s="6">
-        <v>2.19572311551343</v>
+        <v>2.6782456944798798</v>
       </c>
       <c r="E49" s="6">
-        <v>0.60249332224933461</v>
+        <v>0.73489463897630014</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -3572,7 +3570,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="2">
-        <v>63675.970349889474</v>
+        <v>77669.125139916519</v>
       </c>
       <c r="J49" s="5">
         <v>1</v>
@@ -3586,13 +3584,13 @@
         <v>36</v>
       </c>
       <c r="C50" s="4">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D50" s="6">
-        <v>1.9932385707686899</v>
+        <v>1.5048754101253701</v>
       </c>
       <c r="E50" s="6">
-        <v>0.54693277128301843</v>
+        <v>0.41292883379139272</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -3604,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="I50" s="2">
-        <v>57803.918552292009</v>
+        <v>43641.386893635732</v>
       </c>
       <c r="J50" s="5">
         <v>1</v>
@@ -3615,16 +3613,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51" s="4">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D51" s="6">
-        <v>1.0793632382103799</v>
+        <v>2.19572311551343</v>
       </c>
       <c r="E51" s="6">
-        <v>0.29617083261024413</v>
+        <v>0.60249332224933461</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -3636,9 +3634,9 @@
         <v>15</v>
       </c>
       <c r="I51" s="2">
-        <v>31301.533908101017</v>
-      </c>
-      <c r="J51" s="4">
+        <v>63675.970349889474</v>
+      </c>
+      <c r="J51" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3647,16 +3645,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D52" s="6">
-        <v>1.21100165152654</v>
+        <v>1.9932385707686899</v>
       </c>
       <c r="E52" s="6">
-        <v>0.33229162781166405</v>
+        <v>0.54693277128301843</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -3668,7 +3666,7 @@
         <v>15</v>
       </c>
       <c r="I52" s="2">
-        <v>35119.047894269665</v>
+        <v>57803.918552292009</v>
       </c>
       <c r="J52" s="5">
         <v>1</v>
@@ -3682,13 +3680,13 @@
         <v>38</v>
       </c>
       <c r="C53" s="4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D53" s="6">
-        <v>0.65956425009243802</v>
+        <v>1.0793632382103799</v>
       </c>
       <c r="E53" s="6">
-        <v>0.18098049497564414</v>
+        <v>0.29617083261024413</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -3700,9 +3698,9 @@
         <v>15</v>
       </c>
       <c r="I53" s="2">
-        <v>19127.363252680701</v>
-      </c>
-      <c r="J53" s="5">
+        <v>31301.533908101017</v>
+      </c>
+      <c r="J53" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3711,16 +3709,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="4">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D54" s="6">
-        <v>0.950276275616729</v>
+        <v>1.21100165152654</v>
       </c>
       <c r="E54" s="6">
-        <v>0.26075014026400611</v>
+        <v>0.33229162781166405</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -3732,7 +3730,7 @@
         <v>15</v>
       </c>
       <c r="I54" s="2">
-        <v>27558.011992885142</v>
+        <v>35119.047894269665</v>
       </c>
       <c r="J54" s="5">
         <v>1</v>
@@ -3743,16 +3741,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D55" s="6">
-        <v>3.1573921200889798</v>
+        <v>0.65956425009243802</v>
       </c>
       <c r="E55" s="6">
-        <v>0.86636955936562132</v>
+        <v>0.18098049497564414</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -3764,7 +3762,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="2">
-        <v>91564.37148258042</v>
+        <v>19127.363252680701</v>
       </c>
       <c r="J55" s="5">
         <v>1</v>
@@ -3775,16 +3773,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D56" s="6">
-        <v>0.944100100624929</v>
+        <v>0.950276275616729</v>
       </c>
       <c r="E56" s="6">
-        <v>0.25905543469602621</v>
+        <v>0.26075014026400611</v>
       </c>
       <c r="F56" s="4">
         <v>0</v>
@@ -3796,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="2">
-        <v>27378.902918122942</v>
+        <v>27558.011992885142</v>
       </c>
       <c r="J56" s="5">
         <v>1</v>
@@ -3807,16 +3805,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C57" s="4">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D57" s="6">
-        <v>1.19549153071028</v>
+        <v>3.1573921200889798</v>
       </c>
       <c r="E57" s="6">
-        <v>0.32803574319986867</v>
+        <v>0.86636955936562132</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -3828,7 +3826,7 @@
         <v>15</v>
       </c>
       <c r="I57" s="2">
-        <v>34669.254390598122</v>
+        <v>91564.37148258042</v>
       </c>
       <c r="J57" s="5">
         <v>1</v>
@@ -3839,16 +3837,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
+        <v>40</v>
+      </c>
+      <c r="C58" s="4">
         <v>41</v>
       </c>
-      <c r="C58" s="4">
-        <v>45</v>
-      </c>
       <c r="D58" s="6">
-        <v>4.14501206270862</v>
+        <v>0.944100100624929</v>
       </c>
       <c r="E58" s="6">
-        <v>1.1373665790465233</v>
+        <v>0.25905543469602621</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -3860,7 +3858,7 @@
         <v>15</v>
       </c>
       <c r="I58" s="2">
-        <v>99350</v>
+        <v>27378.902918122942</v>
       </c>
       <c r="J58" s="5">
         <v>1</v>
@@ -3871,16 +3869,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D59" s="6">
-        <v>1.0124228365658301</v>
+        <v>1.19549153071028</v>
       </c>
       <c r="E59" s="6">
-        <v>0.27780278579478807</v>
+        <v>0.32803574319986867</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -3892,7 +3890,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="2">
-        <v>29360.262260409072</v>
+        <v>34669.254390598122</v>
       </c>
       <c r="J59" s="5">
         <v>1</v>
@@ -3903,16 +3901,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" s="6">
-        <v>1.39804327543893</v>
+        <v>4.14501206270862</v>
       </c>
       <c r="E60" s="6">
-        <v>0.38361473344082514</v>
+        <v>1.1373665790465233</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -3924,7 +3922,7 @@
         <v>15</v>
       </c>
       <c r="I60" s="2">
-        <v>40543.254987728971</v>
+        <v>99350</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
@@ -3935,16 +3933,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
+        <v>42</v>
+      </c>
+      <c r="C61" s="4">
         <v>43</v>
       </c>
-      <c r="C61" s="4">
-        <v>44</v>
-      </c>
       <c r="D61" s="6">
-        <v>0.85914201387197897</v>
+        <v>1.0124228365658301</v>
       </c>
       <c r="E61" s="6">
-        <v>0.23574344258824037</v>
+        <v>0.27780278579478807</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -3956,7 +3954,7 @@
         <v>15</v>
       </c>
       <c r="I61" s="2">
-        <v>24915.118402287389</v>
+        <v>29360.262260409072</v>
       </c>
       <c r="J61" s="5">
         <v>1</v>
@@ -3967,16 +3965,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62" s="4">
         <v>46</v>
       </c>
       <c r="D62" s="6">
-        <v>1.479873305388</v>
+        <v>1.39804327543893</v>
       </c>
       <c r="E62" s="6">
-        <v>0.40606840542498573</v>
+        <v>0.38361473344082514</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -3988,7 +3986,7 @@
         <v>15</v>
       </c>
       <c r="I62" s="2">
-        <v>42916.325856251999</v>
+        <v>40543.254987728971</v>
       </c>
       <c r="J62" s="5">
         <v>1</v>
@@ -3999,16 +3997,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
+        <v>43</v>
+      </c>
+      <c r="C63" s="4">
         <v>44</v>
       </c>
-      <c r="C63" s="4">
-        <v>46</v>
-      </c>
       <c r="D63" s="6">
-        <v>1.6623477373883</v>
+        <v>0.85914201387197897</v>
       </c>
       <c r="E63" s="6">
-        <v>0.45613830084334028</v>
+        <v>0.23574344258824037</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -4020,37 +4018,107 @@
         <v>15</v>
       </c>
       <c r="I63" s="2">
+        <v>24915.118402287389</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="10">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4">
+        <v>43</v>
+      </c>
+      <c r="C64" s="4">
+        <v>46</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1.479873305388</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.40606840542498573</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>15</v>
+      </c>
+      <c r="I64" s="2">
+        <v>42916.325856251999</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="10">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4">
+        <v>44</v>
+      </c>
+      <c r="C65" s="4">
+        <v>46</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1.6623477373883</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.45613830084334028</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2">
         <v>48208.084384260699</v>
       </c>
-      <c r="J63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4">
+        <v>46</v>
+      </c>
+      <c r="C66" s="4">
+        <v>47</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2.38170107276291</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.65648503776901845</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2">
+        <v>56898.538172785302</v>
+      </c>
+      <c r="J66" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="7"/>
@@ -4154,7 +4222,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4170,7 +4238,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>10</v>
@@ -4225,10 +4293,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8">
-        <v>3400000</v>
+        <v>1700000</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4243,11 +4311,11 @@
       <c r="C5" s="8">
         <v>41</v>
       </c>
-      <c r="D5" s="8">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8">
-        <v>3400000</v>
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1700000</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -4262,11 +4330,11 @@
       <c r="C6" s="8">
         <v>42</v>
       </c>
-      <c r="D6" s="8">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3400000</v>
+      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1700000</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4281,11 +4349,11 @@
       <c r="C7" s="8">
         <v>43</v>
       </c>
-      <c r="D7" s="8">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3400000</v>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1700000</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -4300,11 +4368,11 @@
       <c r="C8" s="8">
         <v>44</v>
       </c>
-      <c r="D8" s="8">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3400000</v>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1700000</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -4319,11 +4387,11 @@
       <c r="C9" s="8">
         <v>45</v>
       </c>
-      <c r="D9" s="8">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3400000</v>
+      <c r="D9" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1700000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -4338,11 +4406,11 @@
       <c r="C10" s="8">
         <v>46</v>
       </c>
-      <c r="D10" s="8">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8">
-        <v>3400000</v>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1700000</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -4357,11 +4425,11 @@
       <c r="C11" s="8">
         <v>47</v>
       </c>
-      <c r="D11" s="8">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3400000</v>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1700000</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -4376,31 +4444,21 @@
       <c r="C12" s="8">
         <v>48</v>
       </c>
-      <c r="D12" s="8">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3400000</v>
+      <c r="D12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1700000</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8">
-        <v>49</v>
-      </c>
-      <c r="D13" s="8">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8">
-        <v>3400000</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
@@ -4502,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4528,10 +4586,10 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4545,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2346000</v>
       </c>
       <c r="E2" s="1">
         <v>33000</v>
@@ -4568,13 +4626,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>2346000</v>
       </c>
       <c r="E3" s="1">
         <v>33000</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4591,16 +4649,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1390000</v>
       </c>
       <c r="E4" s="1">
         <v>50000</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4614,16 +4672,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1390000</v>
       </c>
       <c r="E5" s="1">
         <v>50000</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4634,16 +4692,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6950000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="1">
         <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4050000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -4665,11 +4723,11 @@
       <c r="E7" s="1">
         <v>16000</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
+      <c r="F7" s="12">
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4688,11 +4746,11 @@
       <c r="E8" s="1">
         <v>16000</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="12">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4711,11 +4769,11 @@
       <c r="E9" s="1">
         <v>16000</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
+      <c r="F9" s="12">
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4734,11 +4792,11 @@
       <c r="E10" s="1">
         <v>16000</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
+      <c r="F10" s="12">
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4749,16 +4807,16 @@
         <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>6950000</v>
+        <v>4050000</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
+        <v>16000</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -4785,21 +4843,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>0.49695688116883102</v>
@@ -4815,7 +4873,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1">
         <v>0.46728781363636401</v>
       </c>
@@ -4830,7 +4888,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1">
         <v>0.44503601298701301</v>
       </c>
@@ -4845,7 +4903,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1">
         <v>0.43761874610389601</v>
       </c>
@@ -4860,7 +4918,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1">
         <v>0.43761874610389601</v>
       </c>
@@ -4875,7 +4933,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1">
         <v>0.44503601298701301</v>
       </c>
@@ -4890,7 +4948,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1">
         <v>0.54887774935064904</v>
       </c>
@@ -4905,7 +4963,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1">
         <v>0.63788495194805195</v>
       </c>
@@ -4920,7 +4978,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -4935,7 +4993,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -4950,7 +5008,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -4965,7 +5023,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -4980,7 +5038,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -4995,7 +5053,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -5010,7 +5068,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1">
         <v>0.68980582012987002</v>
       </c>
@@ -5025,7 +5083,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1">
         <v>0.69722308701298696</v>
       </c>
@@ -5040,7 +5098,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1">
         <v>0.73430942142857203</v>
       </c>
@@ -5055,7 +5113,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1">
         <v>0.74172668831168798</v>
       </c>
@@ -5070,7 +5128,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1">
         <v>0.74172668831168798</v>
       </c>
@@ -5085,7 +5143,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -5100,7 +5158,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1">
         <v>0.67497128636363701</v>
       </c>
@@ -5115,7 +5173,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1">
         <v>0.68980582012987002</v>
       </c>
@@ -5130,7 +5188,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="10"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="1">
         <v>0.54146048246753298</v>
       </c>
@@ -5145,7 +5203,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="1">
         <v>0.46728781363636401</v>
       </c>
@@ -5160,8 +5218,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
-        <v>23</v>
+      <c r="A26" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>0.50285541162790703</v>
@@ -5177,7 +5235,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="1">
         <v>0.47283419302325602</v>
       </c>
@@ -5192,7 +5250,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="10"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="1">
         <v>0.45031827906976701</v>
       </c>
@@ -5207,7 +5265,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="1">
         <v>0.44281297441860501</v>
       </c>
@@ -5222,7 +5280,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="1">
         <v>0.44281297441860501</v>
       </c>
@@ -5237,7 +5295,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="1">
         <v>0.45031827906976701</v>
       </c>
@@ -5252,7 +5310,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="1">
         <v>0.555392544186046</v>
       </c>
@@ -5267,7 +5325,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="1">
         <v>0.64545620000000004</v>
       </c>
@@ -5282,7 +5340,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5297,7 +5355,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="10"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5312,7 +5370,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5327,7 +5385,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5342,7 +5400,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5357,7 +5415,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5372,7 +5430,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="1">
         <v>0.69799333255814</v>
       </c>
@@ -5387,7 +5445,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="1">
         <v>0.70549863720930195</v>
       </c>
@@ -5402,7 +5460,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="1">
         <v>0.74302516046511602</v>
       </c>
@@ -5417,7 +5475,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="10"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="1">
         <v>0.75053046511627897</v>
       </c>
@@ -5432,7 +5490,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="1">
         <v>0.75053046511627897</v>
       </c>
@@ -5447,7 +5505,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="10"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5462,7 +5520,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="10"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="1">
         <v>0.68298272325581399</v>
       </c>
@@ -5477,7 +5535,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="10"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="1">
         <v>0.69799333255814</v>
       </c>
@@ -5492,7 +5550,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="1">
         <v>0.54788723953488405</v>
       </c>
@@ -5507,7 +5565,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="10"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="1">
         <v>0.47283419302325602</v>
       </c>
@@ -5522,8 +5580,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="10" t="s">
-        <v>24</v>
+      <c r="A50" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="B50" s="1">
         <v>0.49771907142857102</v>
@@ -5539,7 +5597,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="10"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="1">
         <v>0.46800449999999999</v>
       </c>
@@ -5554,7 +5612,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="10"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="1">
         <v>0.44571857142857102</v>
       </c>
@@ -5569,7 +5627,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="10"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="1">
         <v>0.43828992857142801</v>
       </c>
@@ -5584,7 +5642,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="10"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="1">
         <v>0.43828992857142801</v>
       </c>
@@ -5599,7 +5657,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="10"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="1">
         <v>0.44571857142857102</v>
       </c>
@@ -5614,7 +5672,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="10"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="1">
         <v>0.54971957142857097</v>
       </c>
@@ -5629,7 +5687,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="10"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="1">
         <v>0.63886328571428597</v>
       </c>
@@ -5644,7 +5702,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="10"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5659,7 +5717,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="10"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5674,7 +5732,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="10"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5689,7 +5747,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="10"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5704,7 +5762,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="10"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5719,7 +5777,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="10"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5734,7 +5792,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="10"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="1">
         <v>0.69086378571428597</v>
       </c>
@@ -5749,7 +5807,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="10"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="1">
         <v>0.69829242857142904</v>
       </c>
@@ -5764,7 +5822,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="10"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="1">
         <v>0.73543564285714302</v>
       </c>
@@ -5779,7 +5837,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="10"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="1">
         <v>0.74286428571428598</v>
       </c>
@@ -5794,7 +5852,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="10"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="1">
         <v>0.74286428571428598</v>
       </c>
@@ -5809,7 +5867,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="10"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5824,7 +5882,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="10"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="1">
         <v>0.67600649999999995</v>
       </c>
@@ -5839,7 +5897,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="10"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="1">
         <v>0.69086378571428597</v>
       </c>
@@ -5854,7 +5912,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="10"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="1">
         <v>0.54229092857142902</v>
       </c>
@@ -5869,7 +5927,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="10"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="1">
         <v>0.46800449999999999</v>
       </c>
@@ -5884,8 +5942,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="10" t="s">
-        <v>25</v>
+      <c r="A74" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="B74" s="1">
         <v>0.490099549152542</v>
@@ -5901,7 +5959,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="10"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="1">
         <v>0.46083987457627101</v>
       </c>
@@ -5916,7 +5974,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="10"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="1">
         <v>0.43889511864406799</v>
       </c>
@@ -5931,7 +5989,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="10"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="1">
         <v>0.43158020000000002</v>
       </c>
@@ -5946,7 +6004,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="10"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="1">
         <v>0.43158020000000002</v>
       </c>
@@ -5961,7 +6019,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="10"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="1">
         <v>0.43889511864406799</v>
       </c>
@@ -5976,7 +6034,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="10"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="1">
         <v>0.54130397966101695</v>
       </c>
@@ -5991,7 +6049,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="10"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="1">
         <v>0.62908300338983103</v>
       </c>
@@ -6006,7 +6064,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="10"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6021,7 +6079,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="10"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -6036,7 +6094,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="10"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -6051,7 +6109,7 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="10"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6066,7 +6124,7 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="10"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6081,7 +6139,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="10"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6096,7 +6154,7 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="10"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="1">
         <v>0.68028743389830504</v>
       </c>
@@ -6111,7 +6169,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="10"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="1">
         <v>0.68760235254237301</v>
       </c>
@@ -6126,7 +6184,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="10"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="1">
         <v>0.72417694576271197</v>
       </c>
@@ -6141,7 +6199,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="10"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="1">
         <v>0.73149186440678005</v>
       </c>
@@ -6156,7 +6214,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="10"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="1">
         <v>0.73149186440678005</v>
       </c>
@@ -6171,7 +6229,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="10"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -6186,7 +6244,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="10"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="1">
         <v>0.66565759661016899</v>
       </c>
@@ -6201,7 +6259,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="10"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="1">
         <v>0.68028743389830504</v>
       </c>
@@ -6216,7 +6274,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="10"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="1">
         <v>0.53398906101694898</v>
       </c>
@@ -6231,7 +6289,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="10"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="1">
         <v>0.46083987457627101</v>
       </c>

--- a/data/Data-Ninghai.xlsx
+++ b/data/Data-Ninghai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/LogicBenders/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB56DF-3CDB-BD43-96B7-2791AF168062}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9244C0A4-C554-8D40-8650-A76555199E25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>x坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,23 +120,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -4238,7 +4225,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>10</v>
@@ -4560,7 +4547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -4586,7 +4573,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -4832,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4843,21 +4830,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
-        <v>26</v>
+      <c r="A2" s="16">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.49695688116883102</v>
@@ -4873,7 +4860,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="B3" s="1">
         <v>0.46728781363636401</v>
       </c>
@@ -4888,7 +4877,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16">
+        <v>8.3333333333333301E-2</v>
+      </c>
       <c r="B4" s="1">
         <v>0.44503601298701301</v>
       </c>
@@ -4903,7 +4894,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16">
+        <v>0.125</v>
+      </c>
       <c r="B5" s="1">
         <v>0.43761874610389601</v>
       </c>
@@ -4918,7 +4911,9 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16">
+        <v>0.16666666666666699</v>
+      </c>
       <c r="B6" s="1">
         <v>0.43761874610389601</v>
       </c>
@@ -4933,7 +4928,9 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16">
+        <v>0.20833333333333301</v>
+      </c>
       <c r="B7" s="1">
         <v>0.44503601298701301</v>
       </c>
@@ -4948,7 +4945,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16">
+        <v>0.25</v>
+      </c>
       <c r="B8" s="1">
         <v>0.54887774935064904</v>
       </c>
@@ -4963,7 +4962,9 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16">
+        <v>0.29166666666666702</v>
+      </c>
       <c r="B9" s="1">
         <v>0.63788495194805195</v>
       </c>
@@ -4978,7 +4979,9 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="B10" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -4993,7 +4996,9 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16">
+        <v>0.375</v>
+      </c>
       <c r="B11" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -5008,7 +5013,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16">
+        <v>0.41666666666666702</v>
+      </c>
       <c r="B12" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -5023,7 +5030,9 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16">
+        <v>0.45833333333333298</v>
+      </c>
       <c r="B13" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -5038,7 +5047,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16">
+        <v>0.5</v>
+      </c>
       <c r="B14" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -5053,7 +5064,9 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="B15" s="1">
         <v>0.70464035389610402</v>
       </c>
@@ -5068,7 +5081,9 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16">
+        <v>0.58333333333333304</v>
+      </c>
       <c r="B16" s="1">
         <v>0.68980582012987002</v>
       </c>
@@ -5083,7 +5098,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16">
+        <v>0.625</v>
+      </c>
       <c r="B17" s="1">
         <v>0.69722308701298696</v>
       </c>
@@ -5098,7 +5115,9 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16">
+        <v>0.66666666666666696</v>
+      </c>
       <c r="B18" s="1">
         <v>0.73430942142857203</v>
       </c>
@@ -5113,7 +5132,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16">
+        <v>0.70833333333333304</v>
+      </c>
       <c r="B19" s="1">
         <v>0.74172668831168798</v>
       </c>
@@ -5128,7 +5149,9 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16">
+        <v>0.75</v>
+      </c>
       <c r="B20" s="1">
         <v>0.74172668831168798</v>
       </c>
@@ -5143,7 +5166,9 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16">
+        <v>0.79166666666666696</v>
+      </c>
       <c r="B21" s="1">
         <v>0.71205762077922097</v>
       </c>
@@ -5158,7 +5183,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16">
+        <v>0.83333333333333304</v>
+      </c>
       <c r="B22" s="1">
         <v>0.67497128636363701</v>
       </c>
@@ -5173,7 +5200,9 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16">
+        <v>0.875</v>
+      </c>
       <c r="B23" s="1">
         <v>0.68980582012987002</v>
       </c>
@@ -5188,7 +5217,9 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16">
+        <v>0.91666666666666696</v>
+      </c>
       <c r="B24" s="1">
         <v>0.54146048246753298</v>
       </c>
@@ -5203,7 +5234,9 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16">
+        <v>0.95833333333333304</v>
+      </c>
       <c r="B25" s="1">
         <v>0.46728781363636401</v>
       </c>
@@ -5218,8 +5251,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15" t="s">
-        <v>22</v>
+      <c r="A26" s="16">
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>0.50285541162790703</v>
@@ -5235,7 +5268,9 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16">
+        <v>1.0416666666666701</v>
+      </c>
       <c r="B27" s="1">
         <v>0.47283419302325602</v>
       </c>
@@ -5250,7 +5285,9 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16">
+        <v>1.0833333333333299</v>
+      </c>
       <c r="B28" s="1">
         <v>0.45031827906976701</v>
       </c>
@@ -5265,7 +5302,9 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16">
+        <v>1.125</v>
+      </c>
       <c r="B29" s="1">
         <v>0.44281297441860501</v>
       </c>
@@ -5280,7 +5319,9 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16">
+        <v>1.1666666666666701</v>
+      </c>
       <c r="B30" s="1">
         <v>0.44281297441860501</v>
       </c>
@@ -5295,7 +5336,9 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16">
+        <v>1.2083333333333299</v>
+      </c>
       <c r="B31" s="1">
         <v>0.45031827906976701</v>
       </c>
@@ -5310,7 +5353,9 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16">
+        <v>1.25</v>
+      </c>
       <c r="B32" s="1">
         <v>0.555392544186046</v>
       </c>
@@ -5325,7 +5370,9 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16">
+        <v>1.2916666666666701</v>
+      </c>
       <c r="B33" s="1">
         <v>0.64545620000000004</v>
       </c>
@@ -5340,7 +5387,9 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16">
+        <v>1.3333333333333299</v>
+      </c>
       <c r="B34" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5355,7 +5404,9 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16">
+        <v>1.375</v>
+      </c>
       <c r="B35" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5370,7 +5421,9 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16">
+        <v>1.4166666666666701</v>
+      </c>
       <c r="B36" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5385,7 +5438,9 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16">
+        <v>1.4583333333333299</v>
+      </c>
       <c r="B37" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5400,7 +5455,9 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16">
+        <v>1.5</v>
+      </c>
       <c r="B38" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5415,7 +5472,9 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="15"/>
+      <c r="A39" s="16">
+        <v>1.5416666666666701</v>
+      </c>
       <c r="B39" s="1">
         <v>0.71300394186046501</v>
       </c>
@@ -5430,7 +5489,9 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="15"/>
+      <c r="A40" s="16">
+        <v>1.5833333333333299</v>
+      </c>
       <c r="B40" s="1">
         <v>0.69799333255814</v>
       </c>
@@ -5445,7 +5506,9 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16">
+        <v>1.625</v>
+      </c>
       <c r="B41" s="1">
         <v>0.70549863720930195</v>
       </c>
@@ -5460,7 +5523,9 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16">
+        <v>1.6666666666666701</v>
+      </c>
       <c r="B42" s="1">
         <v>0.74302516046511602</v>
       </c>
@@ -5475,7 +5540,9 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16">
+        <v>1.7083333333333299</v>
+      </c>
       <c r="B43" s="1">
         <v>0.75053046511627897</v>
       </c>
@@ -5490,7 +5557,9 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16">
+        <v>1.75</v>
+      </c>
       <c r="B44" s="1">
         <v>0.75053046511627897</v>
       </c>
@@ -5505,7 +5574,9 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="15"/>
+      <c r="A45" s="16">
+        <v>1.7916666666666701</v>
+      </c>
       <c r="B45" s="1">
         <v>0.72050924651162795</v>
       </c>
@@ -5520,7 +5591,9 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15"/>
+      <c r="A46" s="16">
+        <v>1.8333333333333299</v>
+      </c>
       <c r="B46" s="1">
         <v>0.68298272325581399</v>
       </c>
@@ -5535,7 +5608,9 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15"/>
+      <c r="A47" s="16">
+        <v>1.875</v>
+      </c>
       <c r="B47" s="1">
         <v>0.69799333255814</v>
       </c>
@@ -5550,7 +5625,9 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
+      <c r="A48" s="16">
+        <v>1.9166666666666701</v>
+      </c>
       <c r="B48" s="1">
         <v>0.54788723953488405</v>
       </c>
@@ -5565,7 +5642,9 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15"/>
+      <c r="A49" s="16">
+        <v>1.9583333333333299</v>
+      </c>
       <c r="B49" s="1">
         <v>0.47283419302325602</v>
       </c>
@@ -5580,8 +5659,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="15" t="s">
-        <v>23</v>
+      <c r="A50" s="16">
+        <v>2.0000000000000102</v>
       </c>
       <c r="B50" s="1">
         <v>0.49771907142857102</v>
@@ -5597,7 +5676,9 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="15"/>
+      <c r="A51" s="16">
+        <v>2.0416666666666798</v>
+      </c>
       <c r="B51" s="1">
         <v>0.46800449999999999</v>
       </c>
@@ -5612,7 +5693,9 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="15"/>
+      <c r="A52" s="16">
+        <v>2.0833333333333499</v>
+      </c>
       <c r="B52" s="1">
         <v>0.44571857142857102</v>
       </c>
@@ -5627,7 +5710,9 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="15"/>
+      <c r="A53" s="16">
+        <v>2.12500000000002</v>
+      </c>
       <c r="B53" s="1">
         <v>0.43828992857142801</v>
       </c>
@@ -5642,7 +5727,9 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="15"/>
+      <c r="A54" s="16">
+        <v>2.1666666666666901</v>
+      </c>
       <c r="B54" s="1">
         <v>0.43828992857142801</v>
       </c>
@@ -5657,7 +5744,9 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="15"/>
+      <c r="A55" s="16">
+        <v>2.2083333333333601</v>
+      </c>
       <c r="B55" s="1">
         <v>0.44571857142857102</v>
       </c>
@@ -5672,7 +5761,9 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="15"/>
+      <c r="A56" s="16">
+        <v>2.2500000000000302</v>
+      </c>
       <c r="B56" s="1">
         <v>0.54971957142857097</v>
       </c>
@@ -5687,7 +5778,9 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="15"/>
+      <c r="A57" s="16">
+        <v>2.2916666666666998</v>
+      </c>
       <c r="B57" s="1">
         <v>0.63886328571428597</v>
       </c>
@@ -5702,7 +5795,9 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="15"/>
+      <c r="A58" s="16">
+        <v>2.3333333333333699</v>
+      </c>
       <c r="B58" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5717,7 +5812,9 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="15"/>
+      <c r="A59" s="16">
+        <v>2.37500000000004</v>
+      </c>
       <c r="B59" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5732,7 +5829,9 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="15"/>
+      <c r="A60" s="16">
+        <v>2.41666666666671</v>
+      </c>
       <c r="B60" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5747,7 +5846,9 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16">
+        <v>2.4583333333333801</v>
+      </c>
       <c r="B61" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5762,7 +5863,9 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="15"/>
+      <c r="A62" s="16">
+        <v>2.5000000000000502</v>
+      </c>
       <c r="B62" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5777,7 +5880,9 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="15"/>
+      <c r="A63" s="16">
+        <v>2.5416666666667198</v>
+      </c>
       <c r="B63" s="1">
         <v>0.70572107142857099</v>
       </c>
@@ -5792,7 +5897,9 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16">
+        <v>2.5833333333333899</v>
+      </c>
       <c r="B64" s="1">
         <v>0.69086378571428597</v>
       </c>
@@ -5807,7 +5914,9 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="15"/>
+      <c r="A65" s="16">
+        <v>2.62500000000006</v>
+      </c>
       <c r="B65" s="1">
         <v>0.69829242857142904</v>
       </c>
@@ -5822,7 +5931,9 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="15"/>
+      <c r="A66" s="16">
+        <v>2.66666666666673</v>
+      </c>
       <c r="B66" s="1">
         <v>0.73543564285714302</v>
       </c>
@@ -5837,7 +5948,9 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16">
+        <v>2.7083333333334001</v>
+      </c>
       <c r="B67" s="1">
         <v>0.74286428571428598</v>
       </c>
@@ -5852,7 +5965,9 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="15"/>
+      <c r="A68" s="16">
+        <v>2.7500000000000702</v>
+      </c>
       <c r="B68" s="1">
         <v>0.74286428571428598</v>
       </c>
@@ -5867,7 +5982,9 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="15"/>
+      <c r="A69" s="16">
+        <v>2.7916666666667398</v>
+      </c>
       <c r="B69" s="1">
         <v>0.71314971428571405</v>
       </c>
@@ -5882,7 +5999,9 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="15"/>
+      <c r="A70" s="16">
+        <v>2.8333333333334099</v>
+      </c>
       <c r="B70" s="1">
         <v>0.67600649999999995</v>
       </c>
@@ -5897,7 +6016,9 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="15"/>
+      <c r="A71" s="16">
+        <v>2.8750000000000799</v>
+      </c>
       <c r="B71" s="1">
         <v>0.69086378571428597</v>
       </c>
@@ -5912,7 +6033,9 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="15"/>
+      <c r="A72" s="16">
+        <v>2.91666666666675</v>
+      </c>
       <c r="B72" s="1">
         <v>0.54229092857142902</v>
       </c>
@@ -5927,7 +6050,9 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="15"/>
+      <c r="A73" s="16">
+        <v>2.9583333333334201</v>
+      </c>
       <c r="B73" s="1">
         <v>0.46800449999999999</v>
       </c>
@@ -5942,8 +6067,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="15" t="s">
-        <v>24</v>
+      <c r="A74" s="16">
+        <v>3.0000000000000902</v>
       </c>
       <c r="B74" s="1">
         <v>0.490099549152542</v>
@@ -5959,7 +6084,9 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="15"/>
+      <c r="A75" s="16">
+        <v>3.0416666666667602</v>
+      </c>
       <c r="B75" s="1">
         <v>0.46083987457627101</v>
       </c>
@@ -5974,7 +6101,9 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="15"/>
+      <c r="A76" s="16">
+        <v>3.0833333333334298</v>
+      </c>
       <c r="B76" s="1">
         <v>0.43889511864406799</v>
       </c>
@@ -5989,7 +6118,9 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="15"/>
+      <c r="A77" s="16">
+        <v>3.1250000000000999</v>
+      </c>
       <c r="B77" s="1">
         <v>0.43158020000000002</v>
       </c>
@@ -6004,7 +6135,9 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="15"/>
+      <c r="A78" s="16">
+        <v>3.16666666666677</v>
+      </c>
       <c r="B78" s="1">
         <v>0.43158020000000002</v>
       </c>
@@ -6019,7 +6152,9 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="15"/>
+      <c r="A79" s="16">
+        <v>3.2083333333334401</v>
+      </c>
       <c r="B79" s="1">
         <v>0.43889511864406799</v>
       </c>
@@ -6034,7 +6169,9 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="15"/>
+      <c r="A80" s="16">
+        <v>3.2500000000001101</v>
+      </c>
       <c r="B80" s="1">
         <v>0.54130397966101695</v>
       </c>
@@ -6049,7 +6186,9 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="15"/>
+      <c r="A81" s="16">
+        <v>3.2916666666667802</v>
+      </c>
       <c r="B81" s="1">
         <v>0.62908300338983103</v>
       </c>
@@ -6064,7 +6203,9 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="15"/>
+      <c r="A82" s="16">
+        <v>3.3333333333334498</v>
+      </c>
       <c r="B82" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6079,7 +6220,9 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="15"/>
+      <c r="A83" s="16">
+        <v>3.3750000000001199</v>
+      </c>
       <c r="B83" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -6094,7 +6237,9 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="15"/>
+      <c r="A84" s="16">
+        <v>3.41666666666679</v>
+      </c>
       <c r="B84" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -6109,7 +6254,9 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="15"/>
+      <c r="A85" s="16">
+        <v>3.45833333333346</v>
+      </c>
       <c r="B85" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6124,7 +6271,9 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="15"/>
+      <c r="A86" s="16">
+        <v>3.5000000000001301</v>
+      </c>
       <c r="B86" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6139,7 +6288,9 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="15"/>
+      <c r="A87" s="16">
+        <v>3.5416666666668002</v>
+      </c>
       <c r="B87" s="1">
         <v>0.69491727118644098</v>
       </c>
@@ -6154,7 +6305,9 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="15"/>
+      <c r="A88" s="16">
+        <v>3.5833333333334698</v>
+      </c>
       <c r="B88" s="1">
         <v>0.68028743389830504</v>
       </c>
@@ -6169,7 +6322,9 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="15"/>
+      <c r="A89" s="16">
+        <v>3.6250000000001399</v>
+      </c>
       <c r="B89" s="1">
         <v>0.68760235254237301</v>
       </c>
@@ -6184,7 +6339,9 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="15"/>
+      <c r="A90" s="16">
+        <v>3.66666666666681</v>
+      </c>
       <c r="B90" s="1">
         <v>0.72417694576271197</v>
       </c>
@@ -6199,7 +6356,9 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="15"/>
+      <c r="A91" s="16">
+        <v>3.70833333333348</v>
+      </c>
       <c r="B91" s="1">
         <v>0.73149186440678005</v>
       </c>
@@ -6214,7 +6373,9 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="15"/>
+      <c r="A92" s="16">
+        <v>3.7500000000001501</v>
+      </c>
       <c r="B92" s="1">
         <v>0.73149186440678005</v>
       </c>
@@ -6229,7 +6390,9 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="15"/>
+      <c r="A93" s="16">
+        <v>3.7916666666668202</v>
+      </c>
       <c r="B93" s="1">
         <v>0.70223218983050895</v>
       </c>
@@ -6244,7 +6407,9 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="15"/>
+      <c r="A94" s="16">
+        <v>3.8333333333334898</v>
+      </c>
       <c r="B94" s="1">
         <v>0.66565759661016899</v>
       </c>
@@ -6259,7 +6424,9 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="15"/>
+      <c r="A95" s="16">
+        <v>3.8750000000001599</v>
+      </c>
       <c r="B95" s="1">
         <v>0.68028743389830504</v>
       </c>
@@ -6274,7 +6441,9 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="15"/>
+      <c r="A96" s="16">
+        <v>3.9166666666668299</v>
+      </c>
       <c r="B96" s="1">
         <v>0.53398906101694898</v>
       </c>
@@ -6289,7 +6458,9 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="15"/>
+      <c r="A97" s="16">
+        <v>3.9583333333335</v>
+      </c>
       <c r="B97" s="1">
         <v>0.46083987457627101</v>
       </c>
@@ -6304,12 +6475,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="A50:A73"/>
-    <mergeCell ref="A74:A97"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Data-Ninghai.xlsx
+++ b/data/Data-Ninghai.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/LogicBenders/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22017\Documents\GitHub\LogicBenders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9244C0A4-C554-8D40-8650-A76555199E25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19224" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="新能源" sheetId="4" r:id="rId5"/>
     <sheet name="典型日" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -199,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +249,9 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,17 +532,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="11" width="8.83203125" style="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="11" width="8.77734375" style="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -556,11 +558,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1980,19 +1982,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="4"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="4"/>
-    <col min="12" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="8" width="8.77734375" style="4"/>
+    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="4"/>
+    <col min="12" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2047,10 +2049,10 @@
         <v>1.0563034215448859</v>
       </c>
       <c r="G2" s="4">
-        <v>10</v>
+        <v>6.28</v>
       </c>
       <c r="H2" s="4">
-        <v>5</v>
+        <v>3.94</v>
       </c>
       <c r="I2" s="2">
         <v>69926.748169816943</v>
@@ -2078,11 +2080,11 @@
       <c r="F3" s="6">
         <v>0.48702157298989174</v>
       </c>
-      <c r="G3" s="4">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4">
-        <v>5</v>
+      <c r="G3" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H3" s="15">
+        <v>3.94</v>
       </c>
       <c r="I3" s="2">
         <v>32240.579925344049</v>
@@ -2110,11 +2112,11 @@
       <c r="F4" s="6">
         <v>0.67157102349200448</v>
       </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5</v>
+      <c r="G4" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H4" s="15">
+        <v>3.94</v>
       </c>
       <c r="I4" s="2">
         <v>44457.659494456246</v>
@@ -2142,11 +2144,11 @@
       <c r="F5" s="6">
         <v>0.54641839590321195</v>
       </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5</v>
+      <c r="G5" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H5" s="15">
+        <v>3.94</v>
       </c>
       <c r="I5" s="2">
         <v>36172.619331097754</v>
@@ -2174,11 +2176,11 @@
       <c r="F6" s="6">
         <v>0.29760326014114974</v>
       </c>
-      <c r="G6" s="4">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5</v>
+      <c r="G6" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H6" s="15">
+        <v>3.94</v>
       </c>
       <c r="I6" s="2">
         <v>19701.184150261124</v>
@@ -2206,11 +2208,11 @@
       <c r="F7" s="6">
         <v>0.59014829598163931</v>
       </c>
-      <c r="G7" s="4">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5</v>
+      <c r="G7" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3.94</v>
       </c>
       <c r="I7" s="2">
         <v>39067.516429701449</v>
@@ -2238,11 +2240,11 @@
       <c r="F8" s="6">
         <v>0.83976650395276531</v>
       </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5</v>
+      <c r="G8" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H8" s="15">
+        <v>3.94</v>
       </c>
       <c r="I8" s="2">
         <v>55592.114581498878</v>
@@ -2270,11 +2272,11 @@
       <c r="F9" s="6">
         <v>0.45160093548457975</v>
       </c>
-      <c r="G9" s="4">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4">
-        <v>5</v>
+      <c r="G9" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H9" s="15">
+        <v>3.94</v>
       </c>
       <c r="I9" s="2">
         <v>29895.751774332446</v>
@@ -2302,11 +2304,11 @@
       <c r="F10" s="6">
         <v>1.0952559750776971</v>
       </c>
-      <c r="G10" s="4">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4">
-        <v>5</v>
+      <c r="G10" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H10" s="15">
+        <v>3.94</v>
       </c>
       <c r="I10" s="2">
         <v>72505.387361836692</v>
@@ -2334,11 +2336,11 @@
       <c r="F11" s="6">
         <v>1.032854076444556</v>
       </c>
-      <c r="G11" s="4">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4">
-        <v>5</v>
+      <c r="G11" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H11" s="15">
+        <v>3.94</v>
       </c>
       <c r="I11" s="2">
         <v>68374.413474943271</v>
@@ -2366,11 +2368,11 @@
       <c r="F12" s="6">
         <v>0.82365645552876232</v>
       </c>
-      <c r="G12" s="4">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5</v>
+      <c r="G12" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3.94</v>
       </c>
       <c r="I12" s="2">
         <v>54525.637586185134</v>
@@ -2398,11 +2400,11 @@
       <c r="F13" s="6">
         <v>0.42877599508871672</v>
       </c>
-      <c r="G13" s="4">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4">
-        <v>5</v>
+      <c r="G13" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3.94</v>
       </c>
       <c r="I13" s="2">
         <v>28384.752352671694</v>
@@ -2430,11 +2432,11 @@
       <c r="F14" s="6">
         <v>0.46896746485538698</v>
       </c>
-      <c r="G14" s="4">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5</v>
+      <c r="G14" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H14" s="15">
+        <v>3.94</v>
       </c>
       <c r="I14" s="2">
         <v>31045.407167969326</v>
@@ -2462,11 +2464,11 @@
       <c r="F15" s="6">
         <v>0.67862409708221616</v>
       </c>
-      <c r="G15" s="4">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5</v>
+      <c r="G15" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H15" s="15">
+        <v>3.94</v>
       </c>
       <c r="I15" s="2">
         <v>44924.569371586622</v>
@@ -2494,11 +2496,11 @@
       <c r="F16" s="6">
         <v>0.39904204787497205</v>
       </c>
-      <c r="G16" s="4">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5</v>
+      <c r="G16" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H16" s="15">
+        <v>3.94</v>
       </c>
       <c r="I16" s="2">
         <v>26416.380200786356</v>
@@ -2526,11 +2528,11 @@
       <c r="F17" s="6">
         <v>0.36718367364107579</v>
       </c>
-      <c r="G17" s="4">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4">
-        <v>5</v>
+      <c r="G17" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H17" s="15">
+        <v>3.94</v>
       </c>
       <c r="I17" s="2">
         <v>24307.372062863949</v>
@@ -2558,11 +2560,11 @@
       <c r="F18" s="6">
         <v>0.42644302119073579</v>
       </c>
-      <c r="G18" s="4">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4">
-        <v>5</v>
+      <c r="G18" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3.94</v>
       </c>
       <c r="I18" s="2">
         <v>28230.310669606544</v>
@@ -2590,11 +2592,11 @@
       <c r="F19" s="6">
         <v>0.97481098319711568</v>
       </c>
-      <c r="G19" s="4">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5</v>
+      <c r="G19" s="15">
+        <v>6.28</v>
+      </c>
+      <c r="H19" s="15">
+        <v>3.94</v>
       </c>
       <c r="I19" s="2">
         <v>64531.990283153493</v>
@@ -2626,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>8</v>
+        <v>6.28</v>
       </c>
       <c r="I20" s="2">
         <v>24963.270966995264</v>
@@ -2657,8 +2659,8 @@
       <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="4">
-        <v>8</v>
+      <c r="H21" s="15">
+        <v>6.28</v>
       </c>
       <c r="I21" s="2">
         <v>23690.282086881693</v>
@@ -2689,8 +2691,8 @@
       <c r="G22" s="4">
         <v>0</v>
       </c>
-      <c r="H22" s="4">
-        <v>8</v>
+      <c r="H22" s="15">
+        <v>6.28</v>
       </c>
       <c r="I22" s="2">
         <v>26361.670608324908</v>
@@ -2721,8 +2723,8 @@
       <c r="G23" s="4">
         <v>0</v>
       </c>
-      <c r="H23" s="4">
-        <v>8</v>
+      <c r="H23" s="15">
+        <v>6.28</v>
       </c>
       <c r="I23" s="2">
         <v>29207.229965461847</v>
@@ -2753,8 +2755,8 @@
       <c r="G24" s="4">
         <v>0</v>
       </c>
-      <c r="H24" s="4">
-        <v>8</v>
+      <c r="H24" s="15">
+        <v>6.28</v>
       </c>
       <c r="I24" s="2">
         <v>35659.064623984159</v>
@@ -2785,8 +2787,8 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-      <c r="H25" s="4">
-        <v>8</v>
+      <c r="H25" s="15">
+        <v>6.28</v>
       </c>
       <c r="I25" s="2">
         <v>36524.076266828451</v>
@@ -2817,8 +2819,8 @@
       <c r="G26" s="4">
         <v>0</v>
       </c>
-      <c r="H26" s="4">
-        <v>8</v>
+      <c r="H26" s="15">
+        <v>6.28</v>
       </c>
       <c r="I26" s="2">
         <v>8288.4744059057102</v>
@@ -2849,8 +2851,8 @@
       <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
-        <v>8</v>
+      <c r="H27" s="15">
+        <v>6.28</v>
       </c>
       <c r="I27" s="2">
         <v>18697.437048945485</v>
@@ -2881,8 +2883,8 @@
       <c r="G28" s="4">
         <v>0</v>
       </c>
-      <c r="H28" s="4">
-        <v>8</v>
+      <c r="H28" s="15">
+        <v>6.28</v>
       </c>
       <c r="I28" s="2">
         <v>8250.8786384353571</v>
@@ -2913,8 +2915,8 @@
       <c r="G29" s="4">
         <v>0</v>
       </c>
-      <c r="H29" s="4">
-        <v>8</v>
+      <c r="H29" s="15">
+        <v>6.28</v>
       </c>
       <c r="I29" s="2">
         <v>46813.080982527812</v>
@@ -2945,8 +2947,8 @@
       <c r="G30" s="4">
         <v>0</v>
       </c>
-      <c r="H30" s="4">
-        <v>8</v>
+      <c r="H30" s="15">
+        <v>6.28</v>
       </c>
       <c r="I30" s="2">
         <v>35480.620150486066</v>
@@ -2977,8 +2979,8 @@
       <c r="G31" s="4">
         <v>0</v>
       </c>
-      <c r="H31" s="4">
-        <v>8</v>
+      <c r="H31" s="15">
+        <v>6.28</v>
       </c>
       <c r="I31" s="2">
         <v>26898.538172785324</v>
@@ -3009,8 +3011,8 @@
       <c r="G32" s="4">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
-        <v>8</v>
+      <c r="H32" s="15">
+        <v>6.28</v>
       </c>
       <c r="I32" s="2">
         <v>31491.982654804247</v>
@@ -3041,8 +3043,8 @@
       <c r="G33" s="4">
         <v>0</v>
       </c>
-      <c r="H33" s="4">
-        <v>8</v>
+      <c r="H33" s="15">
+        <v>6.28</v>
       </c>
       <c r="I33" s="2">
         <v>11531.884567285855</v>
@@ -3073,8 +3075,8 @@
       <c r="G34" s="4">
         <v>0</v>
       </c>
-      <c r="H34" s="4">
-        <v>8</v>
+      <c r="H34" s="15">
+        <v>6.28</v>
       </c>
       <c r="I34" s="2">
         <v>6821.5602889640486</v>
@@ -3105,8 +3107,8 @@
       <c r="G35" s="4">
         <v>0</v>
       </c>
-      <c r="H35" s="4">
-        <v>8</v>
+      <c r="H35" s="15">
+        <v>6.28</v>
       </c>
       <c r="I35" s="2">
         <v>30860.1320236801</v>
@@ -3137,8 +3139,8 @@
       <c r="G36" s="4">
         <v>0</v>
       </c>
-      <c r="H36" s="4">
-        <v>8</v>
+      <c r="H36" s="15">
+        <v>6.28</v>
       </c>
       <c r="I36" s="2">
         <v>35549.441442991767</v>
@@ -3169,8 +3171,8 @@
       <c r="G37" s="4">
         <v>0</v>
       </c>
-      <c r="H37" s="4">
-        <v>8</v>
+      <c r="H37" s="15">
+        <v>6.28</v>
       </c>
       <c r="I37" s="2">
         <v>33419.447256111533</v>
@@ -3201,8 +3203,8 @@
       <c r="G38" s="4">
         <v>0</v>
       </c>
-      <c r="H38" s="4">
-        <v>8</v>
+      <c r="H38" s="15">
+        <v>6.28</v>
       </c>
       <c r="I38" s="2">
         <v>12189.626789534515</v>
@@ -3233,8 +3235,8 @@
       <c r="G39" s="4">
         <v>0</v>
       </c>
-      <c r="H39" s="4">
-        <v>8</v>
+      <c r="H39" s="15">
+        <v>6.28</v>
       </c>
       <c r="I39" s="2">
         <v>19985.939499717661</v>
@@ -3265,8 +3267,8 @@
       <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="H40" s="4">
-        <v>8</v>
+      <c r="H40" s="15">
+        <v>6.28</v>
       </c>
       <c r="I40" s="2">
         <v>10877.610422509379</v>
@@ -3297,8 +3299,8 @@
       <c r="G41" s="4">
         <v>0</v>
       </c>
-      <c r="H41" s="4">
-        <v>8</v>
+      <c r="H41" s="15">
+        <v>6.28</v>
       </c>
       <c r="I41" s="2">
         <v>22236.596845698878</v>
@@ -3330,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2">
         <v>48181.254913088262</v>
@@ -3361,8 +3363,8 @@
       <c r="G43" s="4">
         <v>0</v>
       </c>
-      <c r="H43" s="4">
-        <v>15</v>
+      <c r="H43" s="15">
+        <v>10</v>
       </c>
       <c r="I43" s="2">
         <v>56365.28807697165</v>
@@ -3393,8 +3395,8 @@
       <c r="G44" s="4">
         <v>0</v>
       </c>
-      <c r="H44" s="4">
-        <v>15</v>
+      <c r="H44" s="15">
+        <v>10</v>
       </c>
       <c r="I44" s="2">
         <v>54050.002081406099</v>
@@ -3425,8 +3427,8 @@
       <c r="G45" s="4">
         <v>0</v>
       </c>
-      <c r="H45" s="4">
-        <v>15</v>
+      <c r="H45" s="15">
+        <v>10</v>
       </c>
       <c r="I45" s="2">
         <v>65395</v>
@@ -3457,8 +3459,8 @@
       <c r="G46" s="4">
         <v>0</v>
       </c>
-      <c r="H46" s="4">
-        <v>15</v>
+      <c r="H46" s="15">
+        <v>10</v>
       </c>
       <c r="I46" s="2">
         <v>62956.221495575694</v>
@@ -3489,8 +3491,8 @@
       <c r="G47" s="10">
         <v>0</v>
       </c>
-      <c r="H47" s="10">
-        <v>15</v>
+      <c r="H47" s="15">
+        <v>10</v>
       </c>
       <c r="I47" s="2">
         <v>53750.128900000003</v>
@@ -3521,8 +3523,8 @@
       <c r="G48" s="4">
         <v>0</v>
       </c>
-      <c r="H48" s="4">
-        <v>15</v>
+      <c r="H48" s="15">
+        <v>10</v>
       </c>
       <c r="I48" s="2">
         <v>62956.221495575694</v>
@@ -3553,8 +3555,8 @@
       <c r="G49" s="4">
         <v>0</v>
       </c>
-      <c r="H49" s="4">
-        <v>15</v>
+      <c r="H49" s="15">
+        <v>10</v>
       </c>
       <c r="I49" s="2">
         <v>77669.125139916519</v>
@@ -3585,8 +3587,8 @@
       <c r="G50" s="4">
         <v>0</v>
       </c>
-      <c r="H50" s="4">
-        <v>15</v>
+      <c r="H50" s="15">
+        <v>10</v>
       </c>
       <c r="I50" s="2">
         <v>43641.386893635732</v>
@@ -3617,8 +3619,8 @@
       <c r="G51" s="4">
         <v>0</v>
       </c>
-      <c r="H51" s="4">
-        <v>15</v>
+      <c r="H51" s="15">
+        <v>10</v>
       </c>
       <c r="I51" s="2">
         <v>63675.970349889474</v>
@@ -3649,8 +3651,8 @@
       <c r="G52" s="4">
         <v>0</v>
       </c>
-      <c r="H52" s="4">
-        <v>15</v>
+      <c r="H52" s="15">
+        <v>10</v>
       </c>
       <c r="I52" s="2">
         <v>57803.918552292009</v>
@@ -3681,8 +3683,8 @@
       <c r="G53" s="4">
         <v>0</v>
       </c>
-      <c r="H53" s="4">
-        <v>15</v>
+      <c r="H53" s="15">
+        <v>10</v>
       </c>
       <c r="I53" s="2">
         <v>31301.533908101017</v>
@@ -3713,8 +3715,8 @@
       <c r="G54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="4">
-        <v>15</v>
+      <c r="H54" s="15">
+        <v>10</v>
       </c>
       <c r="I54" s="2">
         <v>35119.047894269665</v>
@@ -3745,8 +3747,8 @@
       <c r="G55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="4">
-        <v>15</v>
+      <c r="H55" s="15">
+        <v>10</v>
       </c>
       <c r="I55" s="2">
         <v>19127.363252680701</v>
@@ -3777,8 +3779,8 @@
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="H56" s="4">
-        <v>15</v>
+      <c r="H56" s="15">
+        <v>10</v>
       </c>
       <c r="I56" s="2">
         <v>27558.011992885142</v>
@@ -3809,8 +3811,8 @@
       <c r="G57" s="4">
         <v>0</v>
       </c>
-      <c r="H57" s="4">
-        <v>15</v>
+      <c r="H57" s="15">
+        <v>10</v>
       </c>
       <c r="I57" s="2">
         <v>91564.37148258042</v>
@@ -3841,8 +3843,8 @@
       <c r="G58" s="4">
         <v>0</v>
       </c>
-      <c r="H58" s="4">
-        <v>15</v>
+      <c r="H58" s="15">
+        <v>10</v>
       </c>
       <c r="I58" s="2">
         <v>27378.902918122942</v>
@@ -3873,8 +3875,8 @@
       <c r="G59" s="4">
         <v>0</v>
       </c>
-      <c r="H59" s="4">
-        <v>15</v>
+      <c r="H59" s="15">
+        <v>10</v>
       </c>
       <c r="I59" s="2">
         <v>34669.254390598122</v>
@@ -3905,8 +3907,8 @@
       <c r="G60" s="4">
         <v>0</v>
       </c>
-      <c r="H60" s="4">
-        <v>15</v>
+      <c r="H60" s="15">
+        <v>10</v>
       </c>
       <c r="I60" s="2">
         <v>99350</v>
@@ -3937,8 +3939,8 @@
       <c r="G61" s="4">
         <v>0</v>
       </c>
-      <c r="H61" s="4">
-        <v>15</v>
+      <c r="H61" s="15">
+        <v>10</v>
       </c>
       <c r="I61" s="2">
         <v>29360.262260409072</v>
@@ -3969,8 +3971,8 @@
       <c r="G62" s="4">
         <v>0</v>
       </c>
-      <c r="H62" s="4">
-        <v>15</v>
+      <c r="H62" s="15">
+        <v>10</v>
       </c>
       <c r="I62" s="2">
         <v>40543.254987728971</v>
@@ -4001,8 +4003,8 @@
       <c r="G63" s="4">
         <v>0</v>
       </c>
-      <c r="H63" s="4">
-        <v>15</v>
+      <c r="H63" s="15">
+        <v>10</v>
       </c>
       <c r="I63" s="2">
         <v>24915.118402287389</v>
@@ -4033,8 +4035,8 @@
       <c r="G64" s="4">
         <v>0</v>
       </c>
-      <c r="H64" s="4">
-        <v>15</v>
+      <c r="H64" s="15">
+        <v>10</v>
       </c>
       <c r="I64" s="2">
         <v>42916.325856251999</v>
@@ -4065,8 +4067,8 @@
       <c r="G65" s="4">
         <v>0</v>
       </c>
-      <c r="H65" s="4">
-        <v>15</v>
+      <c r="H65" s="15">
+        <v>10</v>
       </c>
       <c r="I65" s="2">
         <v>48208.084384260699</v>
@@ -4097,8 +4099,8 @@
       <c r="G66" s="11">
         <v>0</v>
       </c>
-      <c r="H66" s="11">
-        <v>15</v>
+      <c r="H66" s="15">
+        <v>10</v>
       </c>
       <c r="I66" s="2">
         <v>56898.538172785302</v>
@@ -4205,14 +4207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECEC427-18F6-4745-87FF-7544B305027C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
@@ -4456,14 +4458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -4544,16 +4546,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4816,16 +4818,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
